--- a/FogliCalcolo/Piping/analisi costi.xlsx
+++ b/FogliCalcolo/Piping/analisi costi.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\Piping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8AD75CF-2B1D-422D-97A6-BC4E47C3C27E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB88AF18-2B53-4DAC-847E-7A9F1827A012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4838DA5B-86D2-4DCE-B236-8E6E57FABD5C}"/>
   </bookViews>
   <sheets>
     <sheet name="C. impianto coibentato" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
   <si>
     <t>Calcolo costi fissi</t>
   </si>
@@ -76,9 +98,6 @@
     <t>mm</t>
   </si>
   <si>
-    <t>r_i</t>
-  </si>
-  <si>
     <t>costo u.v. isolante</t>
   </si>
   <si>
@@ -112,17 +131,349 @@
     <t>€/kWh</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>h/anno</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>potere calorifico inf</t>
+  </si>
+  <si>
+    <t>Raggio interno tubazioni</t>
+  </si>
+  <si>
+    <t>Ore/anno funzionamento pompa</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Potenza dispersa</t>
+  </si>
+  <si>
+    <t>€/kg</t>
+  </si>
+  <si>
+    <t>J/kg</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Costo unitario combustibile</t>
+  </si>
+  <si>
+    <t>ki</t>
+  </si>
+  <si>
+    <t>Combustibile</t>
+  </si>
+  <si>
+    <t>ore/anno</t>
+  </si>
+  <si>
+    <t>Ore/anno funzionamento caldaia</t>
+  </si>
+  <si>
+    <t>Rendimento caldaia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>η</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>Design1</t>
+  </si>
+  <si>
+    <t>Design2</t>
+  </si>
+  <si>
+    <t>Design3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>Ct</t>
+  </si>
+  <si>
+    <t>Ci</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +504,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,7 +534,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -250,12 +622,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -269,12 +678,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -291,6 +719,2302 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Costi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> variabili</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amm pompa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$19:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>111.47781565155833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.022909286783118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.226623267849263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-593E-466B-9E94-5939674A5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amm tubazioni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$19:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1281.3975245462825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>854.26501636418823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>854.26501636418823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-593E-466B-9E94-5939674A5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amm isolante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$19:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2222.1472352923965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1374.0813822097909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2132.5098951248051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-593E-466B-9E94-5939674A5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$19:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>543.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>407.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>271.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-593E-466B-9E94-5939674A5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Combustibile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$19:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1035.9290632641014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2044.5968353896744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1090.4516455411595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-593E-466B-9E94-5939674A5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1755266128"/>
+        <c:axId val="1755267792"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1755266128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755267792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1755267792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1755266128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Costi fissi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo pompa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$10:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>782.97352823377264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>646.33040700956519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>493.24241486609401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA68-408E-AB43-1AED8300A129}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo tubazioni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$10:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA68-408E-AB43-1AED8300A129}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo isolante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$C$10:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15607.432303034091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9650.9726318278426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14977.857135254701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA68-408E-AB43-1AED8300A129}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1695982240"/>
+        <c:axId val="1695991392"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1695982240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695991392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1695991392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695982240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1550C933-9876-4B2A-98CD-210FB7A6109B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B1F7C2-C516-4EA8-8A35-8748CAA3354D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,233 +3314,1447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676F6950-C9DA-4296-90A9-030D9A314E9A}">
-  <dimension ref="B2:J21"/>
+  <dimension ref="B3:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="11" customWidth="1"/>
+    <col min="8" max="10" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="L4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>4000</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2">
+        <v>800</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2">
+        <v>600</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="2">
+        <v>400</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
-        <v>80</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5">
+        <v>300</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="12">
-        <f>750*(C3/750)^(2/3)</f>
-        <v>2289.4284851066636</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="5">
+        <v>300</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="5">
+        <v>300</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="5">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="12">
-        <f>C5*C4</f>
-        <v>1600</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="L9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="5">
+        <v>20</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="5">
+        <v>40</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="5">
         <v>58</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="13">
-        <f>PI()*((C7*0.001 + C6*0.001)^2 - (C7*0.001)^2)*C8</f>
-        <v>164.5377736391118</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="11" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5">
+        <v>108</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="5">
+        <v>108</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="5">
+        <v>108</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="2:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5">
-        <v>100</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11">
-        <f>SUM(G4:G6)</f>
-        <v>4053.9662587457756</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="C12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8">
-        <v>3500</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13"/>
+      <c r="K13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="2">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="12">
-        <f>(1+$C$12)^$C$11*$C$12/((1+$C$12)^$C$11-1)*G4</f>
-        <v>325.96311038238048</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" ref="G12:G13" si="0">(1+$C$12)^$C$11*$C$12/((1+$C$12)^$C$11-1)*G5</f>
-        <v>227.80400436378355</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="E15" s="6"/>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5">
         <f>24*365/2</f>
         <v>4380</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="5">
+        <f>24*365/2</f>
+        <v>4380</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="5">
+        <f>24*365/2</f>
+        <v>4380</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="2:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.155</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.155</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0.155</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G18"/>
+      <c r="K18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19"/>
+      <c r="K19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="2">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="2">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="0"/>
-        <v>23.426477315057159</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5">
+        <v>41860</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="5">
+        <v>41860</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="5">
+        <v>41860</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="G23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="2:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="10">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="10">
+        <v>3200</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="10">
+        <v>3200</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25"/>
+      <c r="K25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="12">
+        <f>750*(D7/750)^(2/3)</f>
+        <v>782.97352823377264</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.155</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="13">
-        <f>C13*C3*0.001*C14</f>
-        <v>2715.6</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="12">
+        <f>750*(I7/750)^(2/3)</f>
+        <v>646.33040700956519</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J16" s="18"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="18"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="12">
+        <f>750*(N7/750)^(2/3)</f>
+        <v>493.24241486609401</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="12">
+        <f>D9*D8</f>
+        <v>9000</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="12">
+        <f>I9*I8</f>
+        <v>6000</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="12">
+        <f>N9*N8</f>
+        <v>6000</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="12">
+        <f>PI()*D12*D8*((D11*0.001 + D10*0.001)^2 - (D11*0.001)^2)</f>
+        <v>15607.432303034091</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="12">
+        <f>PI()*I12*I8*((I11*0.001 + I10*0.001)^2 - (I11*0.001)^2)</f>
+        <v>9650.9726318278426</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="12">
+        <f>PI()*N12*N8*((N11*0.001 + N10*0.001)^2 - (N11*0.001)^2)</f>
+        <v>14977.857135254701</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="19"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="20">
+        <f>SUM(D27:D29)</f>
+        <v>25390.405831267864</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="20">
+        <f>SUM(I27:I29)</f>
+        <v>16297.303038837408</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="20">
+        <f>SUM(N27:N29)</f>
+        <v>21471.099550120794</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="12">
+        <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*D27</f>
+        <v>111.47781565155833</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="12">
+        <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*I27</f>
+        <v>92.022909286783118</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="12">
+        <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*N27</f>
+        <v>70.226623267849263</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="12">
+        <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*D28</f>
+        <v>1281.3975245462825</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="12">
+        <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*I28</f>
+        <v>854.26501636418823</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N34" s="12">
+        <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*N28</f>
+        <v>854.26501636418823</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="12">
+        <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*D29</f>
+        <v>2222.1472352923965</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="12">
+        <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*I29</f>
+        <v>1374.0813822097909</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N35" s="12">
+        <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*N29</f>
+        <v>2132.5098951248051</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="12">
+        <f>D16*D7*0.001*D17</f>
+        <v>543.12</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="12">
+        <f>I16*I7*0.001*I17</f>
+        <v>407.34</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N36" s="12">
+        <f>N16*N7*0.001*N17</f>
+        <v>271.56</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="2:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="12">
+        <f>D20/(D23*D21)*D24*D22*3600</f>
+        <v>1035.9290632641014</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="12">
+        <f>I20/(I23*I21)*I24*I22*3600</f>
+        <v>2044.5968353896744</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N37" s="12">
+        <f>N20/(N23*N21)*N24*N22*3600</f>
+        <v>1090.4516455411595</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="19"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="20">
+        <f>SUM(D33:D37)</f>
+        <v>5194.0716387543389</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="20">
+        <f>SUM(I33:I37)</f>
+        <v>4772.3061432504364</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="20">
+        <f>SUM(N33:N37)</f>
+        <v>4419.0131802980013</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G42" s="25"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G43" s="5"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G44" s="12"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555B64F-BC8E-4EEC-818B-CCA931386C9B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C3C5A1-6A59-4F28-89E2-0E2617183338}">
+  <dimension ref="B9:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" cm="1">
+        <f t="array" ref="C11:C13">'C. impianto coibentato'!D27:D29</f>
+        <v>782.97352823377264</v>
+      </c>
+      <c r="D11" s="12" cm="1">
+        <f t="array" ref="D11:D13">'C. impianto coibentato'!I27:I29</f>
+        <v>646.33040700956519</v>
+      </c>
+      <c r="E11" s="31" cm="1">
+        <f t="array" ref="E11:E13">'C. impianto coibentato'!N27:N29</f>
+        <v>493.24241486609401</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>15607.432303034091</v>
+      </c>
+      <c r="D13" s="10">
+        <v>9650.9726318278426</v>
+      </c>
+      <c r="E13" s="9">
+        <v>14977.857135254701</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12" cm="1">
+        <f t="array" ref="C20:C24">'C. impianto coibentato'!D33:D37</f>
+        <v>111.47781565155833</v>
+      </c>
+      <c r="D20" s="12" cm="1">
+        <f t="array" ref="D20:D24">'C. impianto coibentato'!I33:I37</f>
+        <v>92.022909286783118</v>
+      </c>
+      <c r="E20" s="31" cm="1">
+        <f t="array" ref="E20:E24">'C. impianto coibentato'!N33:N37</f>
+        <v>70.226623267849263</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1281.3975245462825</v>
+      </c>
+      <c r="D21" s="5">
+        <v>854.26501636418823</v>
+      </c>
+      <c r="E21" s="6">
+        <v>854.26501636418823</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2222.1472352923965</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1374.0813822097909</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2132.5098951248051</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5">
+        <v>543.12</v>
+      </c>
+      <c r="D23" s="5">
+        <v>407.34</v>
+      </c>
+      <c r="E23" s="6">
+        <v>271.56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1035.9290632641014</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2044.5968353896744</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1090.4516455411595</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>